--- a/data/dictionaries/TB_HOSP_VAC_FALLECIDOS.xlsx
+++ b/data/dictionaries/TB_HOSP_VAC_FALLECIDOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudio/Downloads/Diccionarios/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudio/Documents/pythonAnalytics/data/dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673A634D-566E-6847-B910-E98B383664F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A141D3-1AF3-7F4C-B2EB-8B861DB2E507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34140" yWindow="500" windowWidth="17060" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -336,9 +336,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -356,6 +353,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -872,7 +872,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -884,12 +884,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -904,7 +904,7 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -980,10 +980,10 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -995,10 +995,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1010,10 +1010,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1040,10 +1040,10 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1143,10 +1143,10 @@
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1158,10 +1158,10 @@
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1171,10 +1171,10 @@
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1199,10 +1199,10 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1227,10 +1227,10 @@
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1242,46 +1242,46 @@
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <v>255</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <v>255</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>255</v>
       </c>
       <c r="E28" s="4"/>
